--- a/Code/Results/Cases/Case_5_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.83029103998173</v>
+        <v>14.26366496892708</v>
       </c>
       <c r="C2">
-        <v>11.63054473615922</v>
+        <v>11.10383122448296</v>
       </c>
       <c r="D2">
-        <v>5.02739097931603</v>
+        <v>6.826510824745297</v>
       </c>
       <c r="E2">
-        <v>9.874893709226635</v>
+        <v>12.73965231580022</v>
       </c>
       <c r="F2">
-        <v>34.47434111557761</v>
+        <v>44.35775937862943</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>21.0757376981328</v>
+        <v>29.52759519459227</v>
       </c>
       <c r="J2">
-        <v>6.691257920109857</v>
+        <v>10.37009018898844</v>
       </c>
       <c r="K2">
-        <v>14.04597139708858</v>
+        <v>15.3236777357165</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.65140855121102</v>
+        <v>21.97709096228471</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.92077878559527</v>
+        <v>14.06300550304561</v>
       </c>
       <c r="C3">
-        <v>10.9396012759669</v>
+        <v>10.95478535355923</v>
       </c>
       <c r="D3">
-        <v>4.770657028116261</v>
+        <v>6.799054472679478</v>
       </c>
       <c r="E3">
-        <v>9.451624620929891</v>
+        <v>12.69667285973865</v>
       </c>
       <c r="F3">
-        <v>33.62483944281054</v>
+        <v>44.30839309715828</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>20.89859775013786</v>
+        <v>29.56263075875016</v>
       </c>
       <c r="J3">
-        <v>6.579818796436432</v>
+        <v>10.37806476201765</v>
       </c>
       <c r="K3">
-        <v>13.27587609982725</v>
+        <v>15.19114164693403</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.84483114116465</v>
+        <v>22.034024535239</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.34057518922702</v>
+        <v>13.94228964832539</v>
       </c>
       <c r="C4">
-        <v>10.50204490442099</v>
+        <v>10.86551881285956</v>
       </c>
       <c r="D4">
-        <v>4.608340530743735</v>
+        <v>6.783485936586973</v>
       </c>
       <c r="E4">
-        <v>9.188965236089789</v>
+        <v>12.67304878075003</v>
       </c>
       <c r="F4">
-        <v>33.12177442559145</v>
+        <v>44.28792935998083</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>20.80492047539286</v>
+        <v>29.5895240158062</v>
       </c>
       <c r="J4">
-        <v>6.51469317936195</v>
+        <v>10.38465996792802</v>
       </c>
       <c r="K4">
-        <v>12.78945327789713</v>
+        <v>15.1130951457311</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.96768202834721</v>
+        <v>22.0709082416699</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.09882911310764</v>
+        <v>13.8937867910274</v>
       </c>
       <c r="C5">
-        <v>10.32053500390836</v>
+        <v>10.82975257494245</v>
       </c>
       <c r="D5">
-        <v>4.541097661692126</v>
+        <v>6.77747097645235</v>
       </c>
       <c r="E5">
-        <v>9.081374909461687</v>
+        <v>12.66412392969218</v>
       </c>
       <c r="F5">
-        <v>32.92151169619281</v>
+        <v>44.28206962835082</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>20.77040862276652</v>
+        <v>29.60183383996501</v>
       </c>
       <c r="J5">
-        <v>6.488983952228376</v>
+        <v>10.38777472127817</v>
       </c>
       <c r="K5">
-        <v>12.58802513922207</v>
+        <v>15.08216023924443</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.01876554520132</v>
+        <v>22.08642363047197</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.05837248594394</v>
+        <v>13.88577643082104</v>
       </c>
       <c r="C6">
-        <v>10.29020710073737</v>
+        <v>10.82385179452109</v>
       </c>
       <c r="D6">
-        <v>4.529868356831139</v>
+        <v>6.77649222769657</v>
       </c>
       <c r="E6">
-        <v>9.063480650173711</v>
+        <v>12.66268455484101</v>
       </c>
       <c r="F6">
-        <v>32.88854675933034</v>
+        <v>44.28124643240019</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>20.76489526205373</v>
+        <v>29.60395936863678</v>
       </c>
       <c r="J6">
-        <v>6.484765077745982</v>
+        <v>10.38831771997561</v>
       </c>
       <c r="K6">
-        <v>12.55439145813861</v>
+        <v>15.07707694989734</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.02730940292941</v>
+        <v>22.08902925854161</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.33733615900929</v>
+        <v>13.9416326454539</v>
       </c>
       <c r="C7">
-        <v>10.49960974059916</v>
+        <v>10.86503392572703</v>
       </c>
       <c r="D7">
-        <v>4.607437998080154</v>
+        <v>6.783403476872047</v>
       </c>
       <c r="E7">
-        <v>9.187516278695549</v>
+        <v>12.67292556576712</v>
       </c>
       <c r="F7">
-        <v>33.11905431674596</v>
+        <v>44.28784029180669</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>20.8044403831007</v>
+        <v>29.58968456557199</v>
       </c>
       <c r="J7">
-        <v>6.514343095200499</v>
+        <v>10.38470024516441</v>
       </c>
       <c r="K7">
-        <v>12.78674942299902</v>
+        <v>15.11267438447533</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.96836683351016</v>
+        <v>22.07111552320043</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.52129056056795</v>
+        <v>14.19399939274679</v>
       </c>
       <c r="C8">
-        <v>11.39514578112028</v>
+        <v>11.05200111653298</v>
       </c>
       <c r="D8">
-        <v>4.939883774658241</v>
+        <v>6.816779307126867</v>
       </c>
       <c r="E8">
-        <v>9.729604840543955</v>
+        <v>12.72426331083814</v>
       </c>
       <c r="F8">
-        <v>34.17763549788077</v>
+        <v>44.33869651950432</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>21.0114501126436</v>
+        <v>29.53855712255308</v>
       </c>
       <c r="J8">
-        <v>6.652149711327744</v>
+        <v>10.3724872563529</v>
       </c>
       <c r="K8">
-        <v>13.78337213743314</v>
+        <v>15.27730762393872</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.7172469751583</v>
+        <v>21.99632222618136</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.83083785008384</v>
+        <v>14.70580014342942</v>
       </c>
       <c r="C9">
-        <v>13.04125913052615</v>
+        <v>11.43444057971924</v>
       </c>
       <c r="D9">
-        <v>5.551904257219535</v>
+        <v>6.892225652731645</v>
       </c>
       <c r="E9">
-        <v>10.76543497239931</v>
+        <v>12.84654757021663</v>
       </c>
       <c r="F9">
-        <v>36.39713767727925</v>
+        <v>44.51634485075301</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>21.54289261523394</v>
+        <v>29.48109831075305</v>
       </c>
       <c r="J9">
-        <v>6.948522226718547</v>
+        <v>10.36201449057142</v>
       </c>
       <c r="K9">
-        <v>15.71282968755525</v>
+        <v>15.62510029526656</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.2576950783559</v>
+        <v>21.8649087720981</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.4397341840194</v>
+        <v>15.08829679470492</v>
       </c>
       <c r="C10">
-        <v>14.18024887536513</v>
+        <v>11.72227335233791</v>
       </c>
       <c r="D10">
-        <v>5.974448904255618</v>
+        <v>6.953409199125095</v>
       </c>
       <c r="E10">
-        <v>11.50436594482468</v>
+        <v>12.94907084604606</v>
       </c>
       <c r="F10">
-        <v>38.11158337121583</v>
+        <v>44.69396872344528</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>22.01772389836945</v>
+        <v>29.46510269913158</v>
       </c>
       <c r="J10">
-        <v>7.182199070038198</v>
+        <v>10.36252830157753</v>
       </c>
       <c r="K10">
-        <v>17.22323530992761</v>
+        <v>15.89375124522732</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.94097418013408</v>
+        <v>21.77761988052275</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.13898141019053</v>
+        <v>15.26290588042936</v>
       </c>
       <c r="C11">
-        <v>14.71837802285515</v>
+        <v>11.85411381437447</v>
       </c>
       <c r="D11">
-        <v>6.160434646205685</v>
+        <v>6.982413004548213</v>
       </c>
       <c r="E11">
-        <v>11.83497770377653</v>
+        <v>12.99834462361385</v>
       </c>
       <c r="F11">
-        <v>38.90928018612368</v>
+        <v>44.7848799742106</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>22.25375808374377</v>
+        <v>29.46353892312525</v>
       </c>
       <c r="J11">
-        <v>7.291991322897817</v>
+        <v>10.36454038056826</v>
       </c>
       <c r="K11">
-        <v>17.87995551416564</v>
+        <v>16.01835470078394</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.80170846244021</v>
+        <v>21.73991257929061</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.39919334751948</v>
+        <v>15.32904780528343</v>
       </c>
       <c r="C12">
-        <v>14.92024143057754</v>
+        <v>11.90411971229129</v>
       </c>
       <c r="D12">
-        <v>6.229949834593615</v>
+        <v>6.993557243679178</v>
       </c>
       <c r="E12">
-        <v>11.95933981612992</v>
+        <v>13.01737107500141</v>
       </c>
       <c r="F12">
-        <v>39.21390056723244</v>
+        <v>44.82074577326814</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>22.34616091915738</v>
+        <v>29.46376911143742</v>
       </c>
       <c r="J12">
-        <v>7.334073754012771</v>
+        <v>10.36555744079665</v>
       </c>
       <c r="K12">
-        <v>18.12439783192347</v>
+        <v>16.06584309148684</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.74969585421308</v>
+        <v>21.72592099939134</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.34335366480214</v>
+        <v>15.31480305093255</v>
       </c>
       <c r="C13">
-        <v>14.87689533297244</v>
+        <v>11.89334722738051</v>
       </c>
       <c r="D13">
-        <v>6.215019309274326</v>
+        <v>6.991150084711481</v>
       </c>
       <c r="E13">
-        <v>11.93259367301105</v>
+        <v>13.01325723026889</v>
       </c>
       <c r="F13">
-        <v>39.14818146405909</v>
+        <v>44.81295764432826</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>22.32612360899461</v>
+        <v>29.46368295213011</v>
       </c>
       <c r="J13">
-        <v>7.324987915617196</v>
+        <v>10.36532706256098</v>
       </c>
       <c r="K13">
-        <v>18.07193944537075</v>
+        <v>16.05560275127095</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.76086489296925</v>
+        <v>21.72892156171937</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.16048023820611</v>
+        <v>15.26834736432934</v>
       </c>
       <c r="C14">
-        <v>14.73504363018366</v>
+        <v>11.85822648901668</v>
       </c>
       <c r="D14">
-        <v>6.166172080107061</v>
+        <v>6.983326661140718</v>
       </c>
       <c r="E14">
-        <v>11.84522590029681</v>
+        <v>12.99990264279201</v>
       </c>
       <c r="F14">
-        <v>38.93429030631151</v>
+        <v>44.78780190859428</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>22.26129872983688</v>
+        <v>29.46354137605006</v>
       </c>
       <c r="J14">
-        <v>7.29544328141673</v>
+        <v>10.3646189454116</v>
       </c>
       <c r="K14">
-        <v>17.90015022742869</v>
+        <v>16.02225574314938</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.79741462653087</v>
+        <v>21.738755726535</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.04787248419674</v>
+        <v>15.23989274279142</v>
       </c>
       <c r="C15">
-        <v>14.64777655054087</v>
+        <v>11.83672309905011</v>
       </c>
       <c r="D15">
-        <v>6.13613240271844</v>
+        <v>6.978555351616687</v>
       </c>
       <c r="E15">
-        <v>11.7916012901673</v>
+        <v>12.99177008735628</v>
       </c>
       <c r="F15">
-        <v>38.80360822171822</v>
+        <v>44.77258033548288</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>22.22198943584183</v>
+        <v>29.46356177069913</v>
       </c>
       <c r="J15">
-        <v>7.277412489138972</v>
+        <v>10.36421840877166</v>
       </c>
       <c r="K15">
-        <v>17.79437561303524</v>
+        <v>16.0018680961833</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.81989780271637</v>
+        <v>21.74481684837894</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.39338950915177</v>
+        <v>15.07689222998712</v>
       </c>
       <c r="C16">
-        <v>14.14708294737665</v>
+        <v>11.71367122875339</v>
       </c>
       <c r="D16">
-        <v>5.962167199780464</v>
+        <v>6.951536681747007</v>
       </c>
       <c r="E16">
-        <v>11.48264469154538</v>
+        <v>12.94590275747106</v>
       </c>
       <c r="F16">
-        <v>38.05980849714563</v>
+        <v>44.68822972769236</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>22.00271355598917</v>
+        <v>29.46531993403223</v>
       </c>
       <c r="J16">
-        <v>7.175094447871194</v>
+        <v>10.36243254447877</v>
       </c>
       <c r="K16">
-        <v>17.17971632234935</v>
+        <v>15.88565282609656</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.95017495493463</v>
+        <v>21.78012437199725</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.9836031211831</v>
+        <v>14.97700502480317</v>
       </c>
       <c r="C17">
-        <v>13.85471259846758</v>
+        <v>11.6383790985823</v>
       </c>
       <c r="D17">
-        <v>5.853833740693111</v>
+        <v>6.935256456710169</v>
       </c>
       <c r="E17">
-        <v>11.29165987777268</v>
+        <v>12.91843169925913</v>
       </c>
       <c r="F17">
-        <v>37.60805122474527</v>
+        <v>44.63906320390229</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>21.8734244319796</v>
+        <v>29.46786242424789</v>
       </c>
       <c r="J17">
-        <v>7.11322202613949</v>
+        <v>10.36179206946068</v>
       </c>
       <c r="K17">
-        <v>16.79494905531492</v>
+        <v>15.81494279404481</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.03134906182819</v>
+        <v>21.80229659451923</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.74482419280294</v>
+        <v>14.91961378587487</v>
       </c>
       <c r="C18">
-        <v>13.68510244100774</v>
+        <v>11.59516102893571</v>
       </c>
       <c r="D18">
-        <v>5.790937062507425</v>
+        <v>6.926003184418566</v>
       </c>
       <c r="E18">
-        <v>11.18129082835712</v>
+        <v>12.90287985714585</v>
       </c>
       <c r="F18">
-        <v>37.3498852007342</v>
+        <v>44.61173640912175</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>21.80093749218979</v>
+        <v>29.46986247747225</v>
       </c>
       <c r="J18">
-        <v>7.077962844582543</v>
+        <v>10.36159111503046</v>
       </c>
       <c r="K18">
-        <v>16.57077445060927</v>
+        <v>15.77449991463594</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.07848887765409</v>
+        <v>21.81523782034982</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.66344527148032</v>
+        <v>14.90019466691235</v>
       </c>
       <c r="C19">
-        <v>13.62742651734513</v>
+        <v>11.58054475710671</v>
       </c>
       <c r="D19">
-        <v>5.769541337825184</v>
+        <v>6.922889412683077</v>
       </c>
       <c r="E19">
-        <v>11.1438339904867</v>
+        <v>12.89765733750419</v>
       </c>
       <c r="F19">
-        <v>37.26276270362081</v>
+        <v>44.60264801366636</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>21.77671276374177</v>
+        <v>29.47063197493974</v>
       </c>
       <c r="J19">
-        <v>7.066080978424746</v>
+        <v>10.36155184753865</v>
       </c>
       <c r="K19">
-        <v>16.4943768197515</v>
+        <v>15.76084697477173</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.0945261339777</v>
+        <v>21.81965185784631</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.02754360531674</v>
+        <v>14.98763233659749</v>
       </c>
       <c r="C20">
-        <v>13.88598550953007</v>
+        <v>11.64638532908087</v>
       </c>
       <c r="D20">
-        <v>5.865426840205951</v>
+        <v>6.936978111127817</v>
       </c>
       <c r="E20">
-        <v>11.31204465398479</v>
+        <v>12.92133037292787</v>
       </c>
       <c r="F20">
-        <v>37.655968591426</v>
+        <v>44.64419858076985</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>21.88699223609342</v>
+        <v>29.46753611623717</v>
       </c>
       <c r="J20">
-        <v>7.119774462332841</v>
+        <v>10.36184292464851</v>
       </c>
       <c r="K20">
-        <v>16.83620400963836</v>
+        <v>15.8224467267152</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.02266109128292</v>
+        <v>21.79991683273964</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.21431784780486</v>
+        <v>15.28199246895723</v>
       </c>
       <c r="C21">
-        <v>14.77678768380035</v>
+        <v>11.86854049603316</v>
       </c>
       <c r="D21">
-        <v>6.180544584208202</v>
+        <v>6.985620276562568</v>
       </c>
       <c r="E21">
-        <v>11.87091075706521</v>
+        <v>13.00381532801872</v>
       </c>
       <c r="F21">
-        <v>38.99704601153574</v>
+        <v>44.79515180629805</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>22.28025620339127</v>
+        <v>29.46356063690285</v>
       </c>
       <c r="J21">
-        <v>7.304107458305468</v>
+        <v>10.36482001781674</v>
       </c>
       <c r="K21">
-        <v>17.95072300960636</v>
+        <v>16.03204264617879</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.78665913246601</v>
+        <v>21.73585939794235</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.96332315002219</v>
+        <v>15.47446825684587</v>
       </c>
       <c r="C22">
-        <v>15.358991925938</v>
+        <v>12.01418052415597</v>
       </c>
       <c r="D22">
-        <v>6.381165325132628</v>
+        <v>7.01834637222151</v>
       </c>
       <c r="E22">
-        <v>12.23130052997405</v>
+        <v>13.05986060285609</v>
       </c>
       <c r="F22">
-        <v>39.88840274180032</v>
+        <v>44.90219223332225</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>22.55496042551364</v>
+        <v>29.4657558699903</v>
       </c>
       <c r="J22">
-        <v>7.427536645345399</v>
+        <v>10.36825244356229</v>
       </c>
       <c r="K22">
-        <v>18.65445719346773</v>
+        <v>16.17077745272061</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.63666051035036</v>
+        <v>21.69566894449103</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.56595899318164</v>
+        <v>15.3717531195346</v>
       </c>
       <c r="C23">
-        <v>15.04978429677053</v>
+        <v>11.9364246142187</v>
       </c>
       <c r="D23">
-        <v>6.274581149713934</v>
+        <v>7.000796696044138</v>
       </c>
       <c r="E23">
-        <v>12.03940608095867</v>
+        <v>13.02975661866379</v>
       </c>
       <c r="F23">
-        <v>39.41130021167763</v>
+        <v>44.84430073418738</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>22.40667931664147</v>
+        <v>29.46414544946424</v>
       </c>
       <c r="J23">
-        <v>7.361387201503651</v>
+        <v>10.36628468784233</v>
       </c>
       <c r="K23">
-        <v>18.28107446319497</v>
+        <v>16.09658516160235</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.71631676610233</v>
+        <v>21.71696621708448</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.00768804878943</v>
+        <v>14.98282761402672</v>
       </c>
       <c r="C24">
-        <v>13.87185177058497</v>
+        <v>11.64276549551</v>
       </c>
       <c r="D24">
-        <v>5.8601875119901</v>
+        <v>6.936199419063296</v>
       </c>
       <c r="E24">
-        <v>11.30283046689976</v>
+        <v>12.9200191290556</v>
       </c>
       <c r="F24">
-        <v>37.63430030461132</v>
+        <v>44.64187394859015</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>21.88085250162836</v>
+        <v>29.46768196312948</v>
       </c>
       <c r="J24">
-        <v>7.116811134096699</v>
+        <v>10.3618194119634</v>
       </c>
       <c r="K24">
-        <v>16.81756189487998</v>
+        <v>15.8190535438252</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.02658745574774</v>
+        <v>21.80099211825748</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20868179283899</v>
+        <v>14.56593065830292</v>
       </c>
       <c r="C25">
-        <v>12.60818779372839</v>
+        <v>11.32957514812381</v>
       </c>
       <c r="D25">
-        <v>5.390941273993296</v>
+        <v>6.870779082263987</v>
       </c>
       <c r="E25">
-        <v>10.48877385861364</v>
+        <v>12.81120082028426</v>
       </c>
       <c r="F25">
-        <v>35.78176423015267</v>
+        <v>44.45997784860892</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>21.3848727841576</v>
+        <v>29.49204571029554</v>
       </c>
       <c r="J25">
-        <v>6.865550235598135</v>
+        <v>10.36340517480068</v>
       </c>
       <c r="K25">
-        <v>15.13848123599766</v>
+        <v>15.52855282792173</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.37842077227535</v>
+        <v>21.89883054336965</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_71/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.26366496892708</v>
+        <v>14.83029103998178</v>
       </c>
       <c r="C2">
-        <v>11.10383122448296</v>
+        <v>11.6305447361592</v>
       </c>
       <c r="D2">
-        <v>6.826510824745297</v>
+        <v>5.027390979316052</v>
       </c>
       <c r="E2">
-        <v>12.73965231580022</v>
+        <v>9.874893709226622</v>
       </c>
       <c r="F2">
-        <v>44.35775937862943</v>
+        <v>34.47434111557786</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>29.52759519459227</v>
+        <v>21.07573769813296</v>
       </c>
       <c r="J2">
-        <v>10.37009018898844</v>
+        <v>6.691257920109791</v>
       </c>
       <c r="K2">
-        <v>15.3236777357165</v>
+        <v>14.04597139708862</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.97709096228471</v>
+        <v>14.65140855121116</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.06300550304561</v>
+        <v>13.92077878559527</v>
       </c>
       <c r="C3">
-        <v>10.95478535355923</v>
+        <v>10.93960127596687</v>
       </c>
       <c r="D3">
-        <v>6.799054472679478</v>
+        <v>4.770657028116269</v>
       </c>
       <c r="E3">
-        <v>12.69667285973865</v>
+        <v>9.451624620929943</v>
       </c>
       <c r="F3">
-        <v>44.30839309715828</v>
+        <v>33.62483944281048</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>29.56263075875016</v>
+        <v>20.89859775013783</v>
       </c>
       <c r="J3">
-        <v>10.37806476201765</v>
+        <v>6.579818796436498</v>
       </c>
       <c r="K3">
-        <v>15.19114164693403</v>
+        <v>13.27587609982725</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.034024535239</v>
+        <v>14.84483114116466</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.94228964832539</v>
+        <v>13.340575189227</v>
       </c>
       <c r="C4">
-        <v>10.86551881285956</v>
+        <v>10.50204490442093</v>
       </c>
       <c r="D4">
-        <v>6.783485936586973</v>
+        <v>4.608340530743755</v>
       </c>
       <c r="E4">
-        <v>12.67304878075003</v>
+        <v>9.18896523608977</v>
       </c>
       <c r="F4">
-        <v>44.28792935998083</v>
+        <v>33.12177442559127</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>29.5895240158062</v>
+        <v>20.80492047539274</v>
       </c>
       <c r="J4">
-        <v>10.38465996792802</v>
+        <v>6.514693179361962</v>
       </c>
       <c r="K4">
-        <v>15.1130951457311</v>
+        <v>12.78945327789708</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.0709082416699</v>
+        <v>14.96768202834716</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.8937867910274</v>
+        <v>13.09882911310765</v>
       </c>
       <c r="C5">
-        <v>10.82975257494245</v>
+        <v>10.32053500390839</v>
       </c>
       <c r="D5">
-        <v>6.77747097645235</v>
+        <v>4.541097661692154</v>
       </c>
       <c r="E5">
-        <v>12.66412392969218</v>
+        <v>9.08137490946174</v>
       </c>
       <c r="F5">
-        <v>44.28206962835082</v>
+        <v>32.92151169619281</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>29.60183383996501</v>
+        <v>20.77040862276657</v>
       </c>
       <c r="J5">
-        <v>10.38777472127817</v>
+        <v>6.48898395222846</v>
       </c>
       <c r="K5">
-        <v>15.08216023924443</v>
+        <v>12.5880251392221</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.08642363047197</v>
+        <v>15.01876554520131</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.88577643082104</v>
+        <v>13.05837248594392</v>
       </c>
       <c r="C6">
-        <v>10.82385179452109</v>
+        <v>10.2902071007374</v>
       </c>
       <c r="D6">
-        <v>6.77649222769657</v>
+        <v>4.529868356831121</v>
       </c>
       <c r="E6">
-        <v>12.66268455484101</v>
+        <v>9.063480650173654</v>
       </c>
       <c r="F6">
-        <v>44.28124643240019</v>
+        <v>32.88854675933018</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>29.60395936863678</v>
+        <v>20.76489526205365</v>
       </c>
       <c r="J6">
-        <v>10.38831771997561</v>
+        <v>6.484765077745927</v>
       </c>
       <c r="K6">
-        <v>15.07707694989734</v>
+        <v>12.55439145813858</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.08902925854161</v>
+        <v>15.02730940292932</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.9416326454539</v>
+        <v>13.33733615900928</v>
       </c>
       <c r="C7">
-        <v>10.86503392572703</v>
+        <v>10.49960974059917</v>
       </c>
       <c r="D7">
-        <v>6.783403476872047</v>
+        <v>4.607437998080136</v>
       </c>
       <c r="E7">
-        <v>12.67292556576712</v>
+        <v>9.187516278695576</v>
       </c>
       <c r="F7">
-        <v>44.28784029180669</v>
+        <v>33.11905431674579</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>29.58968456557199</v>
+        <v>20.80444038310058</v>
       </c>
       <c r="J7">
-        <v>10.38470024516441</v>
+        <v>6.51434309520052</v>
       </c>
       <c r="K7">
-        <v>15.11267438447533</v>
+        <v>12.786749422999</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.07111552320043</v>
+        <v>14.96836683351011</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.19399939274679</v>
+        <v>14.52129056056795</v>
       </c>
       <c r="C8">
-        <v>11.05200111653298</v>
+        <v>11.39514578112027</v>
       </c>
       <c r="D8">
-        <v>6.816779307126867</v>
+        <v>4.939883774658226</v>
       </c>
       <c r="E8">
-        <v>12.72426331083814</v>
+        <v>9.729604840543963</v>
       </c>
       <c r="F8">
-        <v>44.33869651950432</v>
+        <v>34.17763549788078</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>29.53855712255308</v>
+        <v>21.01145011264363</v>
       </c>
       <c r="J8">
-        <v>10.3724872563529</v>
+        <v>6.652149711327747</v>
       </c>
       <c r="K8">
-        <v>15.27730762393872</v>
+        <v>13.78337213743315</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.99632222618136</v>
+        <v>14.71724697515832</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.70580014342942</v>
+        <v>16.83083785008382</v>
       </c>
       <c r="C9">
-        <v>11.43444057971924</v>
+        <v>13.04125913052613</v>
       </c>
       <c r="D9">
-        <v>6.892225652731645</v>
+        <v>5.55190425721952</v>
       </c>
       <c r="E9">
-        <v>12.84654757021663</v>
+        <v>10.76543497239934</v>
       </c>
       <c r="F9">
-        <v>44.51634485075301</v>
+        <v>36.39713767727935</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>29.48109831075305</v>
+        <v>21.54289261523409</v>
       </c>
       <c r="J9">
-        <v>10.36201449057142</v>
+        <v>6.948522226718558</v>
       </c>
       <c r="K9">
-        <v>15.62510029526656</v>
+        <v>15.7128296875552</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.8649087720981</v>
+        <v>14.25769507835596</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.08829679470492</v>
+        <v>18.43973418401938</v>
       </c>
       <c r="C10">
-        <v>11.72227335233791</v>
+        <v>14.18024887536513</v>
       </c>
       <c r="D10">
-        <v>6.953409199125095</v>
+        <v>5.974448904255646</v>
       </c>
       <c r="E10">
-        <v>12.94907084604606</v>
+        <v>11.50436594482471</v>
       </c>
       <c r="F10">
-        <v>44.69396872344528</v>
+        <v>38.11158337121583</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>29.46510269913158</v>
+        <v>22.0177238983694</v>
       </c>
       <c r="J10">
-        <v>10.36252830157753</v>
+        <v>7.182199070038221</v>
       </c>
       <c r="K10">
-        <v>15.89375124522732</v>
+        <v>17.2232353099276</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.77761988052275</v>
+        <v>13.94097418013405</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.26290588042936</v>
+        <v>19.13898141019054</v>
       </c>
       <c r="C11">
-        <v>11.85411381437447</v>
+        <v>14.7183780228552</v>
       </c>
       <c r="D11">
-        <v>6.982413004548213</v>
+        <v>6.160434646205673</v>
       </c>
       <c r="E11">
-        <v>12.99834462361385</v>
+        <v>11.83497770377651</v>
       </c>
       <c r="F11">
-        <v>44.7848799742106</v>
+        <v>38.9092801861237</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>29.46353892312525</v>
+        <v>22.25375808374374</v>
       </c>
       <c r="J11">
-        <v>10.36454038056826</v>
+        <v>7.291991322897805</v>
       </c>
       <c r="K11">
-        <v>16.01835470078394</v>
+        <v>17.87995551416566</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.73991257929061</v>
+        <v>13.80170846244014</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.32904780528343</v>
+        <v>19.39919334751953</v>
       </c>
       <c r="C12">
-        <v>11.90411971229129</v>
+        <v>14.92024143057749</v>
       </c>
       <c r="D12">
-        <v>6.993557243679178</v>
+        <v>6.22994983459362</v>
       </c>
       <c r="E12">
-        <v>13.01737107500141</v>
+        <v>11.95933981612992</v>
       </c>
       <c r="F12">
-        <v>44.82074577326814</v>
+        <v>39.21390056723246</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>29.46376911143742</v>
+        <v>22.34616091915737</v>
       </c>
       <c r="J12">
-        <v>10.36555744079665</v>
+        <v>7.334073754012771</v>
       </c>
       <c r="K12">
-        <v>16.06584309148684</v>
+        <v>18.12439783192347</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.72592099939134</v>
+        <v>13.74969585421306</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.31480305093255</v>
+        <v>19.34335366480217</v>
       </c>
       <c r="C13">
-        <v>11.89334722738051</v>
+        <v>14.87689533297233</v>
       </c>
       <c r="D13">
-        <v>6.991150084711481</v>
+        <v>6.215019309274316</v>
       </c>
       <c r="E13">
-        <v>13.01325723026889</v>
+        <v>11.93259367301105</v>
       </c>
       <c r="F13">
-        <v>44.81295764432826</v>
+        <v>39.14818146405909</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>29.46368295213011</v>
+        <v>22.32612360899457</v>
       </c>
       <c r="J13">
-        <v>10.36532706256098</v>
+        <v>7.324987915617196</v>
       </c>
       <c r="K13">
-        <v>16.05560275127095</v>
+        <v>18.07193944537075</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.72892156171937</v>
+        <v>13.76086489296922</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.26834736432934</v>
+        <v>19.16048023820611</v>
       </c>
       <c r="C14">
-        <v>11.85822648901668</v>
+        <v>14.73504363018369</v>
       </c>
       <c r="D14">
-        <v>6.983326661140718</v>
+        <v>6.166172080107085</v>
       </c>
       <c r="E14">
-        <v>12.99990264279201</v>
+        <v>11.84522590029685</v>
       </c>
       <c r="F14">
-        <v>44.78780190859428</v>
+        <v>38.93429030631167</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>29.46354137605006</v>
+        <v>22.26129872983704</v>
       </c>
       <c r="J14">
-        <v>10.3646189454116</v>
+        <v>7.295443281416726</v>
       </c>
       <c r="K14">
-        <v>16.02225574314938</v>
+        <v>17.9001502274287</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.738755726535</v>
+        <v>13.797414626531</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.23989274279142</v>
+        <v>19.04787248419681</v>
       </c>
       <c r="C15">
-        <v>11.83672309905011</v>
+        <v>14.64777655054086</v>
       </c>
       <c r="D15">
-        <v>6.978555351616687</v>
+        <v>6.136132402718472</v>
       </c>
       <c r="E15">
-        <v>12.99177008735628</v>
+        <v>11.79160129016732</v>
       </c>
       <c r="F15">
-        <v>44.77258033548288</v>
+        <v>38.80360822171819</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>29.46356177069913</v>
+        <v>22.22198943584178</v>
       </c>
       <c r="J15">
-        <v>10.36421840877166</v>
+        <v>7.277412489138986</v>
       </c>
       <c r="K15">
-        <v>16.0018680961833</v>
+        <v>17.79437561303527</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.74481684837894</v>
+        <v>13.81989780271637</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.07689222998712</v>
+        <v>18.39338950915177</v>
       </c>
       <c r="C16">
-        <v>11.71367122875339</v>
+        <v>14.1470829473767</v>
       </c>
       <c r="D16">
-        <v>6.951536681747007</v>
+        <v>5.962167199780476</v>
       </c>
       <c r="E16">
-        <v>12.94590275747106</v>
+        <v>11.48264469154534</v>
       </c>
       <c r="F16">
-        <v>44.68822972769236</v>
+        <v>38.05980849714565</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>29.46531993403223</v>
+        <v>22.00271355598912</v>
       </c>
       <c r="J16">
-        <v>10.36243254447877</v>
+        <v>7.175094447871146</v>
       </c>
       <c r="K16">
-        <v>15.88565282609656</v>
+        <v>17.17971632234938</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.78012437199725</v>
+        <v>13.95017495493453</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.97700502480317</v>
+        <v>17.98360312118304</v>
       </c>
       <c r="C17">
-        <v>11.6383790985823</v>
+        <v>13.85471259846755</v>
       </c>
       <c r="D17">
-        <v>6.935256456710169</v>
+        <v>5.853833740693072</v>
       </c>
       <c r="E17">
-        <v>12.91843169925913</v>
+        <v>11.2916598777727</v>
       </c>
       <c r="F17">
-        <v>44.63906320390229</v>
+        <v>37.60805122474531</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>29.46786242424789</v>
+        <v>21.87342443197966</v>
       </c>
       <c r="J17">
-        <v>10.36179206946068</v>
+        <v>7.113222026139546</v>
       </c>
       <c r="K17">
-        <v>15.81494279404481</v>
+        <v>16.79494905531489</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.80229659451923</v>
+        <v>14.03134906182819</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.91961378587487</v>
+        <v>17.74482419280297</v>
       </c>
       <c r="C18">
-        <v>11.59516102893571</v>
+        <v>13.68510244100774</v>
       </c>
       <c r="D18">
-        <v>6.926003184418566</v>
+        <v>5.790937062507469</v>
       </c>
       <c r="E18">
-        <v>12.90287985714585</v>
+        <v>11.18129082835714</v>
       </c>
       <c r="F18">
-        <v>44.61173640912175</v>
+        <v>37.34988520073427</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>29.46986247747225</v>
+        <v>21.80093749218986</v>
       </c>
       <c r="J18">
-        <v>10.36159111503046</v>
+        <v>7.077962844582589</v>
       </c>
       <c r="K18">
-        <v>15.77449991463594</v>
+        <v>16.57077445060927</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.81523782034982</v>
+        <v>14.07848887765413</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.90019466691235</v>
+        <v>17.66344527148036</v>
       </c>
       <c r="C19">
-        <v>11.58054475710671</v>
+        <v>13.62742651734514</v>
       </c>
       <c r="D19">
-        <v>6.922889412683077</v>
+        <v>5.769541337825208</v>
       </c>
       <c r="E19">
-        <v>12.89765733750419</v>
+        <v>11.14383399048667</v>
       </c>
       <c r="F19">
-        <v>44.60264801366636</v>
+        <v>37.26276270362062</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>29.47063197493974</v>
+        <v>21.77671276374163</v>
       </c>
       <c r="J19">
-        <v>10.36155184753865</v>
+        <v>7.066080978424724</v>
       </c>
       <c r="K19">
-        <v>15.76084697477173</v>
+        <v>16.49437681975155</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.81965185784631</v>
+        <v>14.09452613397759</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.98763233659749</v>
+        <v>18.02754360531664</v>
       </c>
       <c r="C20">
-        <v>11.64638532908087</v>
+        <v>13.88598550953009</v>
       </c>
       <c r="D20">
-        <v>6.936978111127817</v>
+        <v>5.86542684020595</v>
       </c>
       <c r="E20">
-        <v>12.92133037292787</v>
+        <v>11.3120446539848</v>
       </c>
       <c r="F20">
-        <v>44.64419858076985</v>
+        <v>37.65596859142622</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>29.46753611623717</v>
+        <v>21.88699223609362</v>
       </c>
       <c r="J20">
-        <v>10.36184292464851</v>
+        <v>7.119774462332865</v>
       </c>
       <c r="K20">
-        <v>15.8224467267152</v>
+        <v>16.83620400963832</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.79991683273964</v>
+        <v>14.02266109128302</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.28199246895723</v>
+        <v>19.21431784780486</v>
       </c>
       <c r="C21">
-        <v>11.86854049603316</v>
+        <v>14.77678768380035</v>
       </c>
       <c r="D21">
-        <v>6.985620276562568</v>
+        <v>6.180544584208184</v>
       </c>
       <c r="E21">
-        <v>13.00381532801872</v>
+        <v>11.87091075706522</v>
       </c>
       <c r="F21">
-        <v>44.79515180629805</v>
+        <v>38.99704601153568</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>29.46356063690285</v>
+        <v>22.28025620339124</v>
       </c>
       <c r="J21">
-        <v>10.36482001781674</v>
+        <v>7.304107458305506</v>
       </c>
       <c r="K21">
-        <v>16.03204264617879</v>
+        <v>17.95072300960636</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.73585939794235</v>
+        <v>13.78665913246598</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.47446825684587</v>
+        <v>19.96332315002221</v>
       </c>
       <c r="C22">
-        <v>12.01418052415597</v>
+        <v>15.35899192593803</v>
       </c>
       <c r="D22">
-        <v>7.01834637222151</v>
+        <v>6.381165325132574</v>
       </c>
       <c r="E22">
-        <v>13.05986060285609</v>
+        <v>12.23130052997403</v>
       </c>
       <c r="F22">
-        <v>44.90219223332225</v>
+        <v>39.88840274180029</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>29.4657558699903</v>
+        <v>22.5549604255136</v>
       </c>
       <c r="J22">
-        <v>10.36825244356229</v>
+        <v>7.427536645345413</v>
       </c>
       <c r="K22">
-        <v>16.17077745272061</v>
+        <v>18.65445719346773</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.69566894449103</v>
+        <v>13.63666051035033</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.3717531195346</v>
+        <v>19.56595899318174</v>
       </c>
       <c r="C23">
-        <v>11.9364246142187</v>
+        <v>15.04978429677059</v>
       </c>
       <c r="D23">
-        <v>7.000796696044138</v>
+        <v>6.274581149713917</v>
       </c>
       <c r="E23">
-        <v>13.02975661866379</v>
+        <v>12.03940608095865</v>
       </c>
       <c r="F23">
-        <v>44.84430073418738</v>
+        <v>39.41130021167768</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>29.46414544946424</v>
+        <v>22.40667931664143</v>
       </c>
       <c r="J23">
-        <v>10.36628468784233</v>
+        <v>7.361387201503662</v>
       </c>
       <c r="K23">
-        <v>16.09658516160235</v>
+        <v>18.28107446319506</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.71696621708448</v>
+        <v>13.71631676610235</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.98282761402672</v>
+        <v>18.00768804878939</v>
       </c>
       <c r="C24">
-        <v>11.64276549551</v>
+        <v>13.87185177058495</v>
       </c>
       <c r="D24">
-        <v>6.936199419063296</v>
+        <v>5.860187511990067</v>
       </c>
       <c r="E24">
-        <v>12.9200191290556</v>
+        <v>11.3028304668997</v>
       </c>
       <c r="F24">
-        <v>44.64187394859015</v>
+        <v>37.63430030461144</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>29.46768196312948</v>
+        <v>21.88085250162849</v>
       </c>
       <c r="J24">
-        <v>10.3618194119634</v>
+        <v>7.116811134096652</v>
       </c>
       <c r="K24">
-        <v>15.8190535438252</v>
+        <v>16.81756189487991</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.80099211825748</v>
+        <v>14.02658745574781</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.56593065830292</v>
+        <v>16.20868179283898</v>
       </c>
       <c r="C25">
-        <v>11.32957514812381</v>
+        <v>12.60818779372834</v>
       </c>
       <c r="D25">
-        <v>6.870779082263987</v>
+        <v>5.390941273993278</v>
       </c>
       <c r="E25">
-        <v>12.81120082028426</v>
+        <v>10.48877385861363</v>
       </c>
       <c r="F25">
-        <v>44.45997784860892</v>
+        <v>35.78176423015268</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>29.49204571029554</v>
+        <v>21.38487278415769</v>
       </c>
       <c r="J25">
-        <v>10.36340517480068</v>
+        <v>6.865550235598144</v>
       </c>
       <c r="K25">
-        <v>15.52855282792173</v>
+        <v>15.13848123599765</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.89883054336965</v>
+        <v>14.37842077227539</v>
       </c>
       <c r="O25">
         <v>0</v>
